--- a/biology/Botanique/Indigofera_leprieurii/Indigofera_leprieurii.xlsx
+++ b/biology/Botanique/Indigofera_leprieurii/Indigofera_leprieurii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indigofera leprieurii est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente dans plusieurs pays d'Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indigofera leprieurii est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente dans plusieurs pays d'Afrique tropicale.
 Son épithète spécifique leprieurii rend hommage au botaniste et collecteur français François Mathias René Leprieur.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe annuelle érigée rigide, ou un arbuste ramifié, pouvant atteindre une hauteur de 1,2 m[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe annuelle érigée rigide, ou un arbuste ramifié, pouvant atteindre une hauteur de 1,2 m. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente en Afrique de l'Ouest et en en république démocratique du Congo[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente en Afrique de l'Ouest et en en république démocratique du Congo.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans la savane ouverte, parmi les graminées, ou sur des terrains cultivés ou des jachères[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans la savane ouverte, parmi les graminées, ou sur des terrains cultivés ou des jachères.
 </t>
         </is>
       </c>
